--- a/biology/Botanique/Premières-côtes-de-bordeaux/Premières-côtes-de-bordeaux.xlsx
+++ b/biology/Botanique/Premières-côtes-de-bordeaux/Premières-côtes-de-bordeaux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Premi%C3%A8res-c%C3%B4tes-de-bordeaux</t>
+          <t>Premières-côtes-de-bordeaux</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le premières-côtes-de-bordeaux[1] est un vin blanc français d'appellation d'origine contrôlée produit sur les coteaux de la rive droite de la Garonne. Depuis 2008, les rouges de cette zone sont produits sous la dénomination cadillac-côtes-de-bordeaux.
+Le premières-côtes-de-bordeaux est un vin blanc français d'appellation d'origine contrôlée produit sur les coteaux de la rive droite de la Garonne. Depuis 2008, les rouges de cette zone sont produits sous la dénomination cadillac-côtes-de-bordeaux.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Premi%C3%A8res-c%C3%B4tes-de-bordeaux</t>
+          <t>Premières-côtes-de-bordeaux</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Aire d'appellation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Bassens, Baurech, Béguey, Bouliac, Cadillac, Cambes, Camblanes-et-Meynac, Capian, Carbon-Blanc, Cardan, Carignan-de-Bordeaux, Cénac, Cenon, Donzac, Floirac, Gabarnac, Haux, Langoiran, Laroque, Latresne, Lestiac-sur-Garonne, Lormont, Loupiac, Monprimblanc, Omet, Paillet, Quinsac, Rions, Saint-Caprais-de-Bordeaux, Saint-Germain-de-Grave, Saint-Maixant, Sainte-Croix-du-Mont, Sainte-Eulalie, Semens, Tabanac, Le Tourne, Verdelais, Villenave-de-Rions et Yvrac.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Premi%C3%A8res-c%C3%B4tes-de-bordeaux</t>
+          <t>Premières-côtes-de-bordeaux</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Appellations intégrées</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>La partie méridionale de l'aire d'appellation est partagée avec trois autres AOC plus petites, produisant des vins liquoreux :
 loupiac ;
